--- a/test.xlsx
+++ b/test.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NamHoai/MyGit/openstack_report/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="OpenStack_hypervisor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,8 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,10 +166,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +183,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -213,12 +234,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -245,14 +266,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,63 +477,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="13" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" ht="20" customHeight="1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1">
+    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -560,7 +585,7 @@
       </c>
       <c r="D7" s="1">
         <f>B7/C7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -570,7 +595,7 @@
       </c>
       <c r="G7" s="1">
         <f>E7/F7</f>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -580,7 +605,7 @@
       </c>
       <c r="J7" s="1">
         <f>H7/I7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>15</v>
@@ -590,10 +615,10 @@
       </c>
       <c r="M7" s="1">
         <f>K7/L7</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1">
+    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -605,7 +630,7 @@
       </c>
       <c r="D8" s="1">
         <f>B8/C8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -615,7 +640,7 @@
       </c>
       <c r="G8" s="1">
         <f>E8/F8</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>20</v>
@@ -625,7 +650,7 @@
       </c>
       <c r="J8" s="1">
         <f>H8/I8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
@@ -635,10 +660,10 @@
       </c>
       <c r="M8" s="1">
         <f>K8/L8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1">
+    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -650,7 +675,7 @@
       </c>
       <c r="D9" s="1">
         <f>B9/C9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
@@ -660,7 +685,7 @@
       </c>
       <c r="G9" s="1">
         <f>E9/F9</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>20</v>
@@ -670,7 +695,7 @@
       </c>
       <c r="J9" s="1">
         <f>H9/I9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
@@ -680,7 +705,7 @@
       </c>
       <c r="M9" s="1">
         <f>K9/L9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NamHoai/MyGit/openstack_report/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="OpenStack_hypervisor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Host</t>
   </si>
@@ -53,62 +40,17 @@
     <t>Ratio</t>
   </si>
   <si>
+    <t>Percent CPU</t>
+  </si>
+  <si>
     <t>compute1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>compute3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>compute2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,11 +122,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,12 +168,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -266,15 +200,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -301,7 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,65 +409,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="13" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="13" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" ht="20" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:11" ht="20" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:11" ht="20" customHeight="1">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -564,159 +490,55 @@
         <v>7</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(B7/C7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
-        <f>B7/C7</f>
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="1">
-        <f>E7/F7</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
+        <f>(E7/F7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1">
+        <v>30</v>
       </c>
       <c r="J7" s="1">
-        <f>H7/I7</f>
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="1">
-        <f>K7/L7</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8/C8</f>
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="1">
-        <f>E8/F8</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="1">
-        <f>H8/I8</f>
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1">
-        <f>K8/L8</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
-        <f>B9/C9</f>
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="1">
-        <f>E9/F9</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1">
-        <f>H9/I9</f>
-        <v>0.5</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="1">
-        <f>K9/L9</f>
-        <v>0.5</v>
+        <f>(H7/I7)*100</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
